--- a/biology/Zoologie/Amphinomida/Amphinomida.xlsx
+++ b/biology/Zoologie/Amphinomida/Amphinomida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Amphinomida sont un ordre de polychètes marins vagiles. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (11 janvier 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (11 janvier 2019) :
 famille Amphinomidae Lamarck, 1818
 famille Euphrosinidae Williams, 1852
 			Pherecardia striata, un Amphinomidae
@@ -546,7 +560,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fauchald, 1977 : The Polychaete Worms. Definitions and Keys to the Orders, Families and Genera. Natural History Museum of Los Angeles County, The Allan Hancook Fundation (University of Southern California), sér. 28 (texte intégral) (en).</t>
         </is>
